--- a/KSFramework/Product/SettingSource/Billboard.xlsx
+++ b/KSFramework/Product/SettingSource/Billboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11580"/>
+    <workbookView windowWidth="20760" windowHeight="5610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$D$8</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$5:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -78,7 +78,7 @@
     <t>公告1</t>
   </si>
   <si>
-    <t>公告内容11111111111111111111111</t>
+    <t>公告内容1</t>
   </si>
   <si>
     <t>Billboard2</t>
@@ -87,7 +87,7 @@
     <t>公告2</t>
   </si>
   <si>
-    <t>公告内容22222222222222222222222</t>
+    <t>公告内容2222</t>
   </si>
   <si>
     <t>Billboard3</t>
@@ -96,7 +96,7 @@
     <t>公告3</t>
   </si>
   <si>
-    <t>公告内容33333333333333333333333</t>
+    <t>公告内容33333</t>
   </si>
   <si>
     <t>#我是帅气的注释行</t>
@@ -108,7 +108,7 @@
     <t>公告4</t>
   </si>
   <si>
-    <t>公告内容4444444444444444444444</t>
+    <t>公告内容444444444</t>
   </si>
 </sst>
 </file>
@@ -117,11 +117,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -141,15 +141,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -159,110 +225,49 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="18">
@@ -280,6 +285,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,79 +327,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,15 +420,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -435,39 +431,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +452,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +497,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1256,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1352,7 +1357,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D7">
+  <autoFilter ref="A3:D8">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
